--- a/out/herotier_full.xlsx
+++ b/out/herotier_full.xlsx
@@ -23,8 +23,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Elemental'!$A$1:$G$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Daevic'!$A$1:$G$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Illuminated'!$A$1:$G$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Eudic'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Eternal'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Eudic'!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Eternal'!$A$1:$G$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Eudic</t>
+          <t>Eternal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6726,7 +6726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6845,7 +6845,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bridgette</t>
+          <t>Esia &amp; Arnoth</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6858,31 +6858,31 @@
           <t>203</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>S+</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esia &amp; Arnoth</t>
+          <t>Eudos</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6892,34 +6892,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>C</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eudos</t>
+          <t>Gilgamesh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6932,31 +6932,31 @@
           <t>309</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gilgamesh</t>
+          <t>Leuka</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6969,31 +6969,31 @@
           <t>309</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Leuka</t>
+          <t>Melial</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7011,9 +7011,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -7030,7 +7030,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Melial</t>
+          <t>Nyras</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7040,22 +7040,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
@@ -7067,7 +7067,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nyras</t>
+          <t>Theadril</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7077,34 +7077,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Theadril</t>
+          <t>Yunalesca</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7114,22 +7114,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
@@ -7138,45 +7138,8 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Yunalesca</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Eudic</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>S+</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G12"/>
+  <autoFilter ref="A1:G11"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7187,7 +7150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7380,7 +7343,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Celtchar</t>
+          <t>Bridgette</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7388,32 +7351,36 @@
           <t>Eternal</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>S+</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Creithylad</t>
+          <t>Celtchar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7432,9 +7399,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -7446,7 +7413,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Damali</t>
+          <t>Creithylad</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7454,36 +7421,32 @@
           <t>Eternal</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Garzak</t>
+          <t>Damali</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7493,34 +7456,34 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>S</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Heinrich</t>
+          <t>Garzak</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7528,32 +7491,36 @@
           <t>Eternal</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Herla</t>
+          <t>Heinrich</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7562,9 +7529,9 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -7572,9 +7539,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -7586,7 +7553,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kaspar</t>
+          <t>Herla</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7595,19 +7562,19 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -7619,7 +7586,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Maeve</t>
+          <t>Kaspar</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7628,19 +7595,19 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -7652,7 +7619,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Malakith</t>
+          <t>Maeve</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7660,14 +7627,10 @@
           <t>Eternal</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -7675,21 +7638,21 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>D</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phalanx</t>
+          <t>Malakith</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7707,26 +7670,26 @@
           <t>B</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>S</t>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Puith</t>
+          <t>Phalanx</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7734,32 +7697,36 @@
           <t>Eternal</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Viktor</t>
+          <t>Puith</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7767,14 +7734,10 @@
           <t>Eternal</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>303</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -7796,42 +7759,79 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Viktor</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Eternal</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Xayl'Thir</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Eternal</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>203</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G18"/>
+  <autoFilter ref="A1:G19"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>